--- a/Sweden Superettan_2025_2024_etc.xlsx
+++ b/Sweden Superettan_2025_2024_etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25c973f59c1bd7de/Documents/Banco de Dados/BD Ligas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_01F6EA3C9FF8A606D2256F33ED9550AC6E972AF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD83FAA-1A37-4E1B-B4B6-0F218C4FC534}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_01F6EA3C9FF8A606D2256F33ED9550AC6E972AF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD9C0F12-8806-4B7D-9804-DEA20288A48C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,12 +130,6 @@
     <t>Umeå</t>
   </si>
   <si>
-    <t>home_Goals</t>
-  </si>
-  <si>
-    <t>away_Goals</t>
-  </si>
-  <si>
     <t>home_team</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>home_goals</t>
+  </si>
+  <si>
+    <t>away_goals</t>
   </si>
 </sst>
 </file>
@@ -547,13 +547,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
